--- a/fechamento_2021/fechamento_marco/GeralMarco2.xlsx
+++ b/fechamento_2021/fechamento_marco/GeralMarco2.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$301</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -2024,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21510,6 +21513,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BI301"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
